--- a/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
+++ b/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B55DA58-8A0C-4EEB-ABC1-0CB37EB7DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E6990E-96AB-4924-BE6F-D399C7AE7E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>17/12/2024</t>
   </si>
   <si>
-    <t>00:14</t>
+    <t>00:39</t>
   </si>
   <si>
     <t>&lt;Parameter ClientWebsite not found&gt;</t>
@@ -417,7 +417,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>17/12/2024 00:14</t>
+    <t>17/12/2024 00:39</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>45643.010091087963</v>
+        <v>45643.027504745369</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>

--- a/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
+++ b/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E6990E-96AB-4924-BE6F-D399C7AE7E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89898160-71C9-4EFF-BE24-19DE8A795BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,10 @@
     <t>&lt;Parameter ClientContactEmail not found&gt;</t>
   </si>
   <si>
-    <t>17/12/2024</t>
-  </si>
-  <si>
-    <t>00:39</t>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>15:51</t>
   </si>
   <si>
     <t>&lt;Parameter ClientWebsite not found&gt;</t>
@@ -156,48 +156,48 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Tantalum Capacitors</t>
+  </si>
+  <si>
+    <t>BJTs</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitors</t>
+  </si>
+  <si>
+    <t>Chip SMD Resistors</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Interface ICs</t>
+  </si>
+  <si>
+    <t>Voltage Regulators - Linear</t>
+  </si>
+  <si>
     <t>Accelerometers</t>
   </si>
   <si>
-    <t>BJTs</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitors</t>
-  </si>
-  <si>
-    <t>Chip SMD Resistors</t>
+    <t>Terminal Blocks</t>
+  </si>
+  <si>
+    <t>Pressure Sensors</t>
   </si>
   <si>
     <t>Crystals</t>
   </si>
   <si>
-    <t>Interface ICs</t>
-  </si>
-  <si>
-    <t>LEDs</t>
-  </si>
-  <si>
     <t>Microcontrollers</t>
   </si>
   <si>
-    <t>Pressure Sensors</t>
+    <t>Speakers</t>
   </si>
   <si>
     <t>Rectifier Diodes</t>
   </si>
   <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Tantalum Capacitors</t>
-  </si>
-  <si>
-    <t>Terminal Blocks</t>
-  </si>
-  <si>
-    <t>Voltage Regulators - Linear</t>
-  </si>
-  <si>
     <t>Manufacturer 1</t>
   </si>
   <si>
@@ -210,192 +210,192 @@
     <t>SOIC</t>
   </si>
   <si>
+    <t>TSSOP</t>
+  </si>
+  <si>
+    <t>DPAK</t>
+  </si>
+  <si>
     <t>SOT-23</t>
   </si>
   <si>
+    <t>SSOP</t>
+  </si>
+  <si>
     <t>SMD/SMT</t>
   </si>
   <si>
-    <t>TSSOP</t>
-  </si>
-  <si>
-    <t>SSOP</t>
-  </si>
-  <si>
-    <t>DPAK</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Cap 100UF 16VDC 10% 7.3 X 4.3 X 4.1MM SMD 7343-43 T/r</t>
+  </si>
+  <si>
+    <t>BC817 Series 45V 500mA SMT NPN General Purpose Transistor - SOT-23</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 1 uF, 16 V, ï¿½ 10%, X7R, 1206 [3216 Metric]</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0402 1K Ohm 5% 1/16W ±200ppm/°C Molded SMD SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0402 1M Ohm 1% 0.063W(1/16W) ±100ppm/C Pad SMD T/R</t>
+  </si>
+  <si>
+    <t>SMD Chip Resistor, 560 Ohm, ± 5%, 63 mW, 0402 [1005 Metric], Thick Film, General Purpose</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 0.1 uF, 16 V, ï¿½ 10%, X7R, 0402 [1005 Metric]</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 8pF 50V C0G 0.5pF SMD 0402 125°C Paper T/R</t>
+  </si>
+  <si>
+    <t>IRF7101PBF Dual N-channel MOSFET Transistor; 3.5 A; 20 V; 8-Pin SOIC</t>
+  </si>
+  <si>
+    <t>Led SMT Grn Cut Tapes</t>
+  </si>
+  <si>
+    <t>IC DRVR/RCVR MLTCH RS232 16TSSOP</t>
+  </si>
+  <si>
+    <t>MC78M00 Series 0.5 A 5 V Fixed Output SMT LDO Voltage Regulator - DPAK</t>
+  </si>
+  <si>
+    <t>SMD Chip Resistor, 100 kOhm, ± 1%, 250 mW, 0603 [1608 Metric], Thick Film, Anti-Surge</t>
+  </si>
+  <si>
+    <t>Accelerometer Dual ±40g 4.75V to 5.25V 47.5mV/g to 52.5mV/g 20-Pin SOIC T/R</t>
+  </si>
+  <si>
+    <t>MMBT6427 Series 40 V 500 mA NPN Surface Mount Darlington Transistor - SOT-23-3</t>
+  </si>
+  <si>
+    <t>Block, Terminal; 6 A; 63 V; 2.54 mm; 26 to 20 AWG; 2; Screw; Soldering; 1.5 kV</t>
+  </si>
+  <si>
+    <t>Terminal Block Connector; 6 A; 63 V; 2.54 mm; 26 to 20 AWG; 3; Screw; Soldering; 1.5 kV</t>
+  </si>
+  <si>
+    <t>Wire-To-Board Terminal Block Rating to EN: 6 A @ 63 VAC/VDC Rating to UL: 6 A @ 125 VAC/VDC Temperature range: -20...</t>
+  </si>
+  <si>
+    <t>SENSOR ABS PRESS 16.7PSI MAX</t>
+  </si>
+  <si>
+    <t>Crystal 10.0000MHZ 8PF SMD</t>
+  </si>
+  <si>
+    <t>Microchip PIC18F2523-I/SO; 8bit PIC Microcontroller; 40MHz; 32 kB Flash; 28-Pin SOIC</t>
+  </si>
+  <si>
+    <t>AUDIO PIEZO TRANSDUCER 25V SMD / Audio Buzzer Piezo 75dB Surface Mount Solder Pad T/R</t>
+  </si>
+  <si>
+    <t>RCA FIXED RESISTOR 0402 (1005Metric) Chip Resistor ±1% ±100ppm/C 100kOhm 0.063W 1/16W</t>
+  </si>
+  <si>
+    <t>Small Signal Schottky Diode, Single, 20 V, 1 A, 450 Mv, 10 A, 125 C Rohs Compliant: Yes</t>
+  </si>
+  <si>
+    <t>Cap Tant Solid 1uF 16V A CASE 10%( 3.2 X 1.6 X 1.6mm) Inward L SMD 3216-18 11 Ohm 125C T/R</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Capacitors (High dielectric type), 25V, 0.47 uF, +80%, 0603, Y5V/F, RoHS</t>
   </si>
   <si>
-    <t>IRF7101PBF Dual N-channel MOSFET Transistor; 3.5 A; 20 V; 8-Pin SOIC</t>
-  </si>
-  <si>
-    <t>Accelerometer Dual ±40g 4.75V to 5.25V 47.5mV/g to 52.5mV/g 20-Pin SOIC T/R</t>
-  </si>
-  <si>
-    <t>BC817 Series 45V 500mA SMT NPN General Purpose Transistor - SOT-23</t>
-  </si>
-  <si>
-    <t>MMBT6427 Series 40 V 500 mA NPN Surface Mount Darlington Transistor - SOT-23-3</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 1 uF, 16 V, ï¿½ 10%, X7R, 1206 [3216 Metric]</t>
-  </si>
-  <si>
-    <t>Cap Ceramic 8pF 50V C0G 0.5pF SMD 0402 125°C Paper T/R</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 0.1 uF, 16 V, ï¿½ 10%, X7R, 0402 [1005 Metric]</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0402 1K Ohm 5% 1/16W ±200ppm/°C Molded SMD SMD Paper T/R</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0402 1M Ohm 1% 0.063W(1/16W) ±100ppm/C Pad SMD T/R</t>
-  </si>
-  <si>
-    <t>SMD Chip Resistor, 100 kOhm, ± 1%, 250 mW, 0603 [1608 Metric], Thick Film, Anti-Surge</t>
-  </si>
-  <si>
-    <t>RCA FIXED RESISTOR 0402 (1005Metric) Chip Resistor ±1% ±100ppm/C 100kOhm 0.063W 1/16W</t>
-  </si>
-  <si>
-    <t>SMD Chip Resistor, 560 Ohm, ± 5%, 63 mW, 0402 [1005 Metric], Thick Film, General Purpose</t>
-  </si>
-  <si>
-    <t>Crystal 10.0000MHZ 8PF SMD</t>
-  </si>
-  <si>
-    <t>IC DRVR/RCVR MLTCH RS232 16TSSOP</t>
-  </si>
-  <si>
-    <t>Led SMT Grn Cut Tapes</t>
-  </si>
-  <si>
-    <t>Microchip PIC18F2523-I/SO; 8bit PIC Microcontroller; 40MHz; 32 kB Flash; 28-Pin SOIC</t>
-  </si>
-  <si>
-    <t>SENSOR ABS PRESS 16.7PSI MAX</t>
-  </si>
-  <si>
-    <t>Small Signal Schottky Diode, Single, 20 V, 1 A, 450 Mv, 10 A, 125 C Rohs Compliant: Yes</t>
-  </si>
-  <si>
-    <t>AUDIO PIEZO TRANSDUCER 25V SMD / Audio Buzzer Piezo 75dB Surface Mount Solder Pad T/R</t>
-  </si>
-  <si>
-    <t>Cap Tant Solid 1uF 16V A CASE 10%( 3.2 X 1.6 X 1.6mm) Inward L SMD 3216-18 11 Ohm 125C T/R</t>
-  </si>
-  <si>
     <t>Cap Tant Solid 1uF 20V A CASE 10%( 3.2 X 1.6 X 1.6mm) Inward L SMD 3216-18 3 Ohm 125C T/R</t>
   </si>
   <si>
-    <t>Cap 100UF 16VDC 10% 7.3 X 4.3 X 4.1MM SMD 7343-43 T/r</t>
-  </si>
-  <si>
-    <t>Block, Terminal; 6 A; 63 V; 2.54 mm; 26 to 20 AWG; 2; Screw; Soldering; 1.5 kV</t>
-  </si>
-  <si>
-    <t>Terminal Block Connector; 6 A; 63 V; 2.54 mm; 26 to 20 AWG; 3; Screw; Soldering; 1.5 kV</t>
-  </si>
-  <si>
-    <t>Wire-To-Board Terminal Block Rating to EN: 6 A @ 63 VAC/VDC Rating to UL: 6 A @ 125 VAC/VDC Temperature range: -20...</t>
-  </si>
-  <si>
-    <t>MC78M00 Series 0.5 A 5 V Fixed Output SMT LDO Voltage Regulator - DPAK</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Supplier 1</t>
   </si>
   <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Future Electronics</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
     <t>Allied Electronics</t>
   </si>
   <si>
+    <t>Ampacity Systems</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
     <t>Newark</t>
   </si>
   <si>
-    <t>Future Electronics</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>Mouser</t>
+    <t>Onlinecomponents.com</t>
+  </si>
+  <si>
+    <t>Sourcengine</t>
+  </si>
+  <si>
+    <t>Arrow Electronics</t>
   </si>
   <si>
     <t>Richardson RFPD</t>
   </si>
   <si>
-    <t>Ampacity Systems</t>
-  </si>
-  <si>
-    <t>Arrow Electronics</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>Onlinecomponents.com</t>
-  </si>
-  <si>
-    <t>Sourcengine</t>
-  </si>
-  <si>
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>71-CRCW0402J-1.0K-E3</t>
+  </si>
+  <si>
+    <t>71-CRCW04021M00FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402J-560-E3</t>
+  </si>
+  <si>
+    <t>LNJ314G8TRA</t>
+  </si>
+  <si>
+    <t>595-MAX3232IPWR</t>
+  </si>
+  <si>
+    <t>P100KBYCT-ND</t>
+  </si>
+  <si>
     <t>85AK8921</t>
   </si>
   <si>
     <t>MMBT6427-FDICT-ND</t>
   </si>
   <si>
-    <t>71-CRCW0402J-1.0K-E3</t>
-  </si>
-  <si>
-    <t>71-CRCW04021M00FKEDC</t>
-  </si>
-  <si>
-    <t>P100KBYCT-ND</t>
+    <t>651-1725656</t>
+  </si>
+  <si>
+    <t>MPT0,5/4-2,54</t>
+  </si>
+  <si>
+    <t>MPXH6115A6U</t>
+  </si>
+  <si>
+    <t>NX5032GA-10.00E</t>
+  </si>
+  <si>
+    <t>PIC18F2523-I/SO</t>
   </si>
   <si>
     <t>71-RCA0402100KFKED</t>
   </si>
   <si>
-    <t>71-CRCW0402J-560-E3</t>
-  </si>
-  <si>
-    <t>NX5032GA-10.00E</t>
-  </si>
-  <si>
-    <t>595-MAX3232IPWR</t>
-  </si>
-  <si>
-    <t>LNJ314G8TRA</t>
-  </si>
-  <si>
-    <t>PIC18F2523-I/SO</t>
-  </si>
-  <si>
-    <t>MPXH6115A6U</t>
-  </si>
-  <si>
     <t>478-1649-1-ND</t>
   </si>
   <si>
-    <t>651-1725656</t>
-  </si>
-  <si>
-    <t>MPT0,5/4-2,54</t>
-  </si>
-  <si>
     <t>Supplier Order Qty 1</t>
   </si>
   <si>
@@ -417,7 +417,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>17/12/2024 00:39</t>
+    <t>18/12/2024 15:51</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1915,11 +1915,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>45643.027504745369</v>
+        <v>45644.660679398148</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1979,20 +1979,26 @@
         <f>ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30">
-        <v>603</v>
+        <v>2917</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="30">
-        <v>4</v>
-      </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="30">
+        <v>9751084</v>
+      </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
       <c r="M10" s="81"/>
@@ -2005,12 +2011,12 @@
         <f>ROW(B11) - ROW($B$9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>57</v>
-      </c>
+      <c r="F11" s="32"/>
       <c r="G11" s="32" t="s">
         <v>65</v>
       </c>
@@ -2018,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J11" s="32">
-        <v>70016974</v>
+        <v>3451903</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
@@ -2036,24 +2042,24 @@
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
-        <v>57</v>
+      <c r="F12" s="30">
+        <v>1206</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
       <c r="H12" s="30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>105</v>
+      <c r="J12" s="30">
+        <v>9057753</v>
       </c>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -2068,22 +2074,24 @@
         <v>4</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32">
+        <v>402</v>
+      </c>
       <c r="G13" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="32">
-        <v>3451903</v>
+      <c r="J13" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
@@ -2098,21 +2106,21 @@
         <v>5</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
-        <v>58</v>
+      <c r="F14" s="30">
+        <v>402</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>68</v>
       </c>
       <c r="H14" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>106</v>
@@ -2130,24 +2138,24 @@
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32">
-        <v>1206</v>
+        <v>402</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="32">
-        <v>9057753</v>
+      <c r="J15" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
@@ -2173,10 +2181,14 @@
         <v>70</v>
       </c>
       <c r="H16" s="30">
-        <v>2</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="30"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="30">
+        <v>5964861</v>
+      </c>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="81"/>
@@ -2201,14 +2213,10 @@
         <v>71</v>
       </c>
       <c r="H17" s="32">
-        <v>9</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="32">
-        <v>5964861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
       <c r="M17" s="82"/>
@@ -2221,25 +2229,23 @@
         <f>ROW(B18) - ROW($B$9)</f>
         <v>9</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="30">
-        <v>402</v>
+      <c r="F18" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="J18" s="30">
+        <v>70016974</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -2254,18 +2260,18 @@
         <v>10</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="75" t="s">
         <v>97</v>
@@ -2286,21 +2292,21 @@
         <v>11</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="30">
-        <v>603</v>
+      <c r="F20" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>74</v>
       </c>
       <c r="H20" s="30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>109</v>
@@ -2318,24 +2324,24 @@
         <v>12</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="32">
-        <v>402</v>
+      <c r="F21" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="J21" s="32">
+        <v>8771974</v>
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
@@ -2355,19 +2361,19 @@
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>76</v>
       </c>
       <c r="H22" s="30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
@@ -2382,12 +2388,12 @@
         <v>14</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>77</v>
@@ -2396,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
@@ -2414,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
@@ -2425,13 +2431,13 @@
         <v>78</v>
       </c>
       <c r="H24" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -2446,13 +2452,11 @@
         <v>16</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="32">
-        <v>603</v>
-      </c>
+      <c r="F25" s="32"/>
       <c r="G25" s="32" t="s">
         <v>79</v>
       </c>
@@ -2460,10 +2464,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="75" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -2478,13 +2482,11 @@
         <v>17</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
-        <v>57</v>
-      </c>
+      <c r="F26" s="30"/>
       <c r="G26" s="30" t="s">
         <v>80</v>
       </c>
@@ -2494,8 +2496,8 @@
       <c r="I26" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>115</v>
+      <c r="J26" s="30">
+        <v>1725669</v>
       </c>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
@@ -2514,9 +2516,7 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="32" t="s">
-        <v>61</v>
-      </c>
+      <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
         <v>81</v>
       </c>
@@ -2524,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -2546,8 +2546,8 @@
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="30">
-        <v>805</v>
+      <c r="F28" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>82</v>
@@ -2555,8 +2555,12 @@
       <c r="H28" s="30">
         <v>1</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>115</v>
+      </c>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
       <c r="M28" s="81"/>
@@ -2574,15 +2578,21 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H29" s="32">
         <v>1</v>
       </c>
-      <c r="I29" s="75"/>
-      <c r="J29" s="32"/>
+      <c r="I29" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" s="82"/>
@@ -2600,8 +2610,8 @@
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="30">
-        <v>1206</v>
+      <c r="F30" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>84</v>
@@ -2610,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>117</v>
@@ -2628,18 +2638,16 @@
         <v>22</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="32">
-        <v>1206</v>
-      </c>
+      <c r="F31" s="32"/>
       <c r="G31" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H31" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="75"/>
       <c r="J31" s="32"/>
@@ -2656,24 +2664,24 @@
         <v>23</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30">
-        <v>2917</v>
+        <v>402</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>86</v>
       </c>
       <c r="H32" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="30">
-        <v>9751084</v>
+        <v>95</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
@@ -2688,23 +2696,21 @@
         <v>24</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32">
+        <v>805</v>
+      </c>
       <c r="G33" s="32" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="32">
-        <v>2</v>
-      </c>
-      <c r="I33" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="82"/>
@@ -2718,11 +2724,13 @@
         <v>25</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="30">
+        <v>1206</v>
+      </c>
       <c r="G34" s="30" t="s">
         <v>88</v>
       </c>
@@ -2730,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="I34" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="30">
-        <v>1725669</v>
+        <v>98</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
@@ -2747,24 +2755,20 @@
         <f>ROW(B35) - ROW($B$9)</f>
         <v>26</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="32">
+        <v>603</v>
+      </c>
       <c r="G35" s="32" t="s">
         <v>89</v>
       </c>
       <c r="H35" s="32">
-        <v>1</v>
-      </c>
-      <c r="I35" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>119</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I35" s="75"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="82"/>
@@ -2778,25 +2782,21 @@
         <v>27</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
+      <c r="F36" s="30">
+        <v>1206</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>90</v>
       </c>
       <c r="H36" s="30">
-        <v>1</v>
-      </c>
-      <c r="I36" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="30">
-        <v>8771974</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" s="74"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="81"/>

--- a/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
+++ b/2ele275-cepm-24-projeto-jm-torres-main/Componentes/ESR03EZPJ103/Project Outputs for Comp_Bordo/Bill of Materials/[No Variations].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89898160-71C9-4EFF-BE24-19DE8A795BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{489479BD-DCEC-44A0-8A56-32D570C9DCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -138,10 +138,10 @@
     <t>&lt;Parameter ClientContactEmail not found&gt;</t>
   </si>
   <si>
-    <t>18/12/2024</t>
-  </si>
-  <si>
-    <t>15:51</t>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>14:14</t>
   </si>
   <si>
     <t>&lt;Parameter ClientWebsite not found&gt;</t>
@@ -300,9 +300,6 @@
     <t>Small Signal Schottky Diode, Single, 20 V, 1 A, 450 Mv, 10 A, 125 C Rohs Compliant: Yes</t>
   </si>
   <si>
-    <t>Cap Tant Solid 1uF 16V A CASE 10%( 3.2 X 1.6 X 1.6mm) Inward L SMD 3216-18 11 Ohm 125C T/R</t>
-  </si>
-  <si>
     <t>Multilayer Ceramic Capacitors (High dielectric type), 25V, 0.47 uF, +80%, 0603, Y5V/F, RoHS</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>71-RCA0402100KFKED</t>
   </si>
   <si>
-    <t>478-1649-1-ND</t>
-  </si>
-  <si>
     <t>Supplier Order Qty 1</t>
   </si>
   <si>
@@ -417,7 +411,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>18/12/2024 15:51</t>
+    <t>19/12/2024 14:14</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1749,7 +1743,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -1915,11 +1909,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>45644.660679398148</v>
+        <v>45645.593711921298</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1949,28 +1943,28 @@
         <v>63</v>
       </c>
       <c r="H9" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="J9" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="N9" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>122</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="30">
         <v>9751084</v>
@@ -2024,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="32">
         <v>3451903</v>
@@ -2053,10 +2047,10 @@
         <v>66</v>
       </c>
       <c r="H12" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="30">
         <v>9057753</v>
@@ -2088,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
@@ -2120,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -2152,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
@@ -2181,10 +2175,10 @@
         <v>70</v>
       </c>
       <c r="H16" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="30">
         <v>5964861</v>
@@ -2242,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="30">
         <v>70016974</v>
@@ -2274,10 +2268,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
@@ -2306,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
@@ -2338,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" s="32">
         <v>8771974</v>
@@ -2370,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
@@ -2402,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
@@ -2434,10 +2428,10 @@
         <v>2</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -2464,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -2494,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="30">
         <v>1725669</v>
@@ -2524,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -2556,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
@@ -2588,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
@@ -2620,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
@@ -2678,10 +2672,10 @@
         <v>2</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
@@ -2723,26 +2717,20 @@
         <f>ROW(B34) - ROW($B$9)</f>
         <v>25</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30">
-        <v>1206</v>
+        <v>603</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>88</v>
       </c>
       <c r="H34" s="30">
-        <v>1</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>119</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I34" s="74"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
       <c r="M34" s="81"/>
@@ -2755,17 +2743,19 @@
         <f>ROW(B35) - ROW($B$9)</f>
         <v>26</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32">
-        <v>603</v>
+        <v>1206</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>89</v>
       </c>
       <c r="H35" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" s="75"/>
       <c r="J35" s="32"/>
@@ -2775,75 +2765,74 @@
       <c r="N35" s="82"/>
       <c r="O35" s="66"/>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
-      <c r="B36" s="29">
-        <f>ROW(B36) - ROW($B$9)</f>
+      <c r="B36" s="51"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="47"/>
+      <c r="H36" s="46">
+        <f>SUM(H10:H35)</f>
+        <v>63</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="46">
+        <f>SUM(K10:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45">
+        <f>SUM(N10:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="67"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55"/>
+      <c r="B37" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="77"/>
+      <c r="O37" s="64"/>
+    </row>
+    <row r="38" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30">
-        <v>1206</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="30">
-        <v>2</v>
-      </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="65"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="47"/>
-      <c r="H37" s="46">
-        <f>SUM(H10:H36)</f>
-        <v>63</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="46">
-        <f>SUM(K10:K36)</f>
+      <c r="J38" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="84">
+        <f>N36</f>
         <v>0</v>
       </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45">
-        <f>SUM(N10:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="67"/>
-    </row>
-    <row r="38" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="77"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="93" t="s">
+        <v>38</v>
+      </c>
       <c r="O38" s="64"/>
     </row>
-    <row r="39" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2851,65 +2840,43 @@
       <c r="E39" s="8"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="84">
-        <f>N37</f>
+      <c r="H39" s="5"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="86">
+        <f>L38/H38</f>
         <v>0</v>
       </c>
-      <c r="M39" s="85"/>
-      <c r="N39" s="93" t="s">
+      <c r="M39" s="86"/>
+      <c r="N39" s="94" t="s">
         <v>38</v>
       </c>
       <c r="O39" s="64"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="86">
-        <f>L39/H39</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="86"/>
-      <c r="N40" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="O40" s="64"/>
-    </row>
-    <row r="41" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="68"/>
+    <row r="40" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="68"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
@@ -2921,24 +2888,19 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="L10:L36">
+  <conditionalFormatting sqref="L10:L35">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N36">
+  <conditionalFormatting sqref="N10:N35">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
@@ -2972,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
